--- a/data/raw/liste_der_selbststaendigen_ambulatorien_in_oesterreich_(datenbankabruf_03.10.2022).xlsx
+++ b/data/raw/liste_der_selbststaendigen_ambulatorien_in_oesterreich_(datenbankabruf_03.10.2022).xlsx
@@ -18864,7 +18864,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -18896,6 +18896,18 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Wingdings"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -19049,7 +19061,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -19063,46 +19075,46 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
@@ -19113,9 +19125,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -19439,35 +19448,35 @@
     <col min="7" max="7" style="21" width="14.290714285714287" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="21" width="15.147857142857141" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="21" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="22" width="27.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="23" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="23" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="21" width="27.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="22" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -21684,7 +21693,7 @@
       <c r="AK36" s="20"/>
       <c r="AL36" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="16" t="s">
         <v>257</v>
       </c>
@@ -21746,7 +21755,7 @@
       <c r="AK37" s="20"/>
       <c r="AL37" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="16" t="s">
         <v>257</v>
       </c>
@@ -21806,7 +21815,7 @@
       <c r="AK38" s="20"/>
       <c r="AL38" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="16" t="s">
         <v>257</v>
       </c>
@@ -21868,7 +21877,7 @@
       <c r="AK39" s="20"/>
       <c r="AL39" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="16" t="s">
         <v>257</v>
       </c>
@@ -21930,7 +21939,7 @@
       <c r="AK40" s="20"/>
       <c r="AL40" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="16" t="s">
         <v>257</v>
       </c>
@@ -21994,7 +22003,7 @@
       <c r="AK41" s="20"/>
       <c r="AL41" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="16" t="s">
         <v>257</v>
       </c>
@@ -27994,7 +28003,7 @@
       <c r="AK138" s="20"/>
       <c r="AL138" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
       <c r="A139" s="16" t="s">
         <v>757</v>
       </c>
@@ -28056,7 +28065,7 @@
       <c r="AK139" s="20"/>
       <c r="AL139" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
       <c r="A140" s="16" t="s">
         <v>757</v>
       </c>
@@ -28118,7 +28127,7 @@
       <c r="AK140" s="20"/>
       <c r="AL140" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
       <c r="A141" s="16" t="s">
         <v>757</v>
       </c>
@@ -28180,7 +28189,7 @@
       <c r="AK141" s="20"/>
       <c r="AL141" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
       <c r="A142" s="16" t="s">
         <v>757</v>
       </c>
@@ -28238,7 +28247,7 @@
       <c r="AK142" s="20"/>
       <c r="AL142" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
       <c r="A143" s="16" t="s">
         <v>757</v>
       </c>
@@ -28300,7 +28309,7 @@
       <c r="AK143" s="20"/>
       <c r="AL143" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
       <c r="A144" s="16" t="s">
         <v>757</v>
       </c>
@@ -28366,7 +28375,7 @@
       </c>
       <c r="AL144" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
       <c r="A145" s="16" t="s">
         <v>757</v>
       </c>
@@ -28428,7 +28437,7 @@
       <c r="AK145" s="20"/>
       <c r="AL145" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
       <c r="A146" s="16" t="s">
         <v>757</v>
       </c>
@@ -28494,7 +28503,7 @@
       <c r="AK146" s="20"/>
       <c r="AL146" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
       <c r="A147" s="16" t="s">
         <v>757</v>
       </c>
@@ -28556,7 +28565,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
       <c r="A148" s="16" t="s">
         <v>757</v>
       </c>
@@ -28618,7 +28627,7 @@
       <c r="AK148" s="20"/>
       <c r="AL148" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5">
       <c r="A149" s="16" t="s">
         <v>757</v>
       </c>
@@ -28678,7 +28687,7 @@
       <c r="AK149" s="20"/>
       <c r="AL149" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
       <c r="A150" s="16" t="s">
         <v>757</v>
       </c>
@@ -28738,7 +28747,7 @@
       <c r="AK150" s="20"/>
       <c r="AL150" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
       <c r="A151" s="16" t="s">
         <v>757</v>
       </c>
@@ -28800,7 +28809,7 @@
       <c r="AK151" s="20"/>
       <c r="AL151" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5">
       <c r="A152" s="16" t="s">
         <v>757</v>
       </c>
@@ -28862,7 +28871,7 @@
       <c r="AK152" s="20"/>
       <c r="AL152" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
       <c r="A153" s="16" t="s">
         <v>757</v>
       </c>
@@ -28924,7 +28933,7 @@
       <c r="AK153" s="20"/>
       <c r="AL153" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5">
       <c r="A154" s="16" t="s">
         <v>757</v>
       </c>
@@ -28986,7 +28995,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5">
       <c r="A155" s="16" t="s">
         <v>757</v>
       </c>
@@ -29048,7 +29057,7 @@
       <c r="AK155" s="20"/>
       <c r="AL155" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5">
       <c r="A156" s="16" t="s">
         <v>757</v>
       </c>
@@ -29108,7 +29117,7 @@
       <c r="AK156" s="20"/>
       <c r="AL156" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5">
       <c r="A157" s="16" t="s">
         <v>757</v>
       </c>
@@ -29170,7 +29179,7 @@
       <c r="AK157" s="20"/>
       <c r="AL157" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5">
       <c r="A158" s="16" t="s">
         <v>757</v>
       </c>
@@ -29232,7 +29241,7 @@
       <c r="AK158" s="20"/>
       <c r="AL158" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5">
       <c r="A159" s="16" t="s">
         <v>757</v>
       </c>
@@ -29294,7 +29303,7 @@
       <c r="AK159" s="20"/>
       <c r="AL159" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5">
       <c r="A160" s="16" t="s">
         <v>757</v>
       </c>
@@ -29354,7 +29363,7 @@
       <c r="AK160" s="20"/>
       <c r="AL160" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5">
       <c r="A161" s="16" t="s">
         <v>757</v>
       </c>
@@ -29414,7 +29423,7 @@
       <c r="AK161" s="20"/>
       <c r="AL161" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5">
       <c r="A162" s="16" t="s">
         <v>757</v>
       </c>
@@ -29476,7 +29485,7 @@
       <c r="AK162" s="20"/>
       <c r="AL162" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5">
       <c r="A163" s="16" t="s">
         <v>757</v>
       </c>
@@ -29538,7 +29547,7 @@
       <c r="AK163" s="20"/>
       <c r="AL163" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5">
       <c r="A164" s="16" t="s">
         <v>757</v>
       </c>
@@ -29598,7 +29607,7 @@
       <c r="AK164" s="20"/>
       <c r="AL164" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5">
       <c r="A165" s="16" t="s">
         <v>757</v>
       </c>
@@ -29658,7 +29667,7 @@
       <c r="AK165" s="20"/>
       <c r="AL165" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5">
       <c r="A166" s="16" t="s">
         <v>757</v>
       </c>
@@ -29718,7 +29727,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5">
       <c r="A167" s="16" t="s">
         <v>757</v>
       </c>
@@ -29778,7 +29787,7 @@
       <c r="AK167" s="20"/>
       <c r="AL167" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5">
       <c r="A168" s="16" t="s">
         <v>757</v>
       </c>
@@ -29838,7 +29847,7 @@
       <c r="AK168" s="20"/>
       <c r="AL168" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5">
       <c r="A169" s="16" t="s">
         <v>757</v>
       </c>
@@ -29906,7 +29915,7 @@
       </c>
       <c r="AL169" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5">
       <c r="A170" s="16" t="s">
         <v>757</v>
       </c>
@@ -29968,7 +29977,7 @@
       <c r="AK170" s="20"/>
       <c r="AL170" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5">
       <c r="A171" s="16" t="s">
         <v>757</v>
       </c>
@@ -30030,7 +30039,7 @@
       <c r="AK171" s="20"/>
       <c r="AL171" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5">
       <c r="A172" s="16" t="s">
         <v>757</v>
       </c>
@@ -30092,7 +30101,7 @@
       <c r="AK172" s="20"/>
       <c r="AL172" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5">
       <c r="A173" s="16" t="s">
         <v>757</v>
       </c>
@@ -30154,7 +30163,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5">
       <c r="A174" s="16" t="s">
         <v>757</v>
       </c>
@@ -30224,7 +30233,7 @@
       <c r="AK174" s="20"/>
       <c r="AL174" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5">
       <c r="A175" s="16" t="s">
         <v>757</v>
       </c>
@@ -30286,7 +30295,7 @@
       <c r="AK175" s="20"/>
       <c r="AL175" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5">
       <c r="A176" s="16" t="s">
         <v>757</v>
       </c>
@@ -30348,7 +30357,7 @@
       <c r="AK176" s="20"/>
       <c r="AL176" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5">
       <c r="A177" s="16" t="s">
         <v>757</v>
       </c>
@@ -30410,7 +30419,7 @@
       <c r="AK177" s="20"/>
       <c r="AL177" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5">
       <c r="A178" s="16" t="s">
         <v>757</v>
       </c>
@@ -30472,7 +30481,7 @@
       </c>
       <c r="AL178" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5">
       <c r="A179" s="16" t="s">
         <v>757</v>
       </c>
@@ -30532,7 +30541,7 @@
       <c r="AK179" s="20"/>
       <c r="AL179" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
       <c r="A180" s="16" t="s">
         <v>757</v>
       </c>
@@ -30594,7 +30603,7 @@
       <c r="AK180" s="20"/>
       <c r="AL180" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5">
       <c r="A181" s="16" t="s">
         <v>757</v>
       </c>
@@ -30656,7 +30665,7 @@
       <c r="AK181" s="20"/>
       <c r="AL181" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5">
       <c r="A182" s="16" t="s">
         <v>757</v>
       </c>
@@ -30722,7 +30731,7 @@
       <c r="AK182" s="20"/>
       <c r="AL182" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
       <c r="A183" s="16" t="s">
         <v>757</v>
       </c>
@@ -30784,7 +30793,7 @@
       <c r="AK183" s="20"/>
       <c r="AL183" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5">
       <c r="A184" s="16" t="s">
         <v>757</v>
       </c>
